--- a/src/jira/Sample.xlsx
+++ b/src/jira/Sample.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SILABARR\Oracle Content - Accounts\Oracle Content\Simon\Repos\oracle-fun\src\jira\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simon\Documents\GitHub\oracle-fun\src\jira\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8865E164-2045-4743-A430-28D94FA83F04}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11077CB5-369D-44C2-A1B7-8655B31BD331}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{3EFAE35D-5952-4EBB-A9A9-C9D0EF8F76DB}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{3EFAE35D-5952-4EBB-A9A9-C9D0EF8F76DB}"/>
   </bookViews>
   <sheets>
-    <sheet name="Identification" sheetId="1" r:id="rId1"/>
-    <sheet name="Issues" sheetId="2" r:id="rId2"/>
+    <sheet name="Identification" sheetId="4" r:id="rId1"/>
+    <sheet name="Stories" sheetId="2" r:id="rId2"/>
     <sheet name="Sub-Tasks" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="43">
   <si>
     <t>Epic Link</t>
   </si>
@@ -68,9 +68,6 @@
     <t>Test</t>
   </si>
   <si>
-    <t>22C</t>
-  </si>
-  <si>
     <t>Summary</t>
   </si>
   <si>
@@ -83,9 +80,6 @@
     <t>Supports markdown as described here</t>
   </si>
   <si>
-    <t>List of Issue Types</t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
@@ -102,21 +96,6 @@
   </si>
   <si>
     <t>Parent</t>
-  </si>
-  <si>
-    <t>FRCE-78363</t>
-  </si>
-  <si>
-    <t>ex: my.manager@oracle.com</t>
-  </si>
-  <si>
-    <t>ex: me@oracle.com</t>
-  </si>
-  <si>
-    <t>me@oracle.com</t>
-  </si>
-  <si>
-    <t>boss@oracle.com</t>
   </si>
   <si>
     <t>Consectetur Adipiscing Elit</t>
@@ -150,6 +129,45 @@
   </si>
   <si>
     <t>Sed auctor facilisis justo eget semper. Lorem ipsum dolor sit amet, consectetur adipiscing elit. Fusce in mauris dapibus, posuere justo a, tempus augue. Nulla facilisis, nulla nec varius ultrices, nulla urna mattis mauris, sed auctor felis dolor sit amet massa.</t>
+  </si>
+  <si>
+    <t>FRCE-98810</t>
+  </si>
+  <si>
+    <t>laurent.devigne@oracle.com</t>
+  </si>
+  <si>
+    <t>ex: laurent.devigne@oracle.com</t>
+  </si>
+  <si>
+    <t>vincent.hamel@oracle.com</t>
+  </si>
+  <si>
+    <t>ex: simon.labarre@oracle.com</t>
+  </si>
+  <si>
+    <t>23B</t>
+  </si>
+  <si>
+    <t>Import Stories?</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Import Sub-Tasks?</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>List of Issue Types for Stories</t>
+  </si>
+  <si>
+    <t>Import</t>
+  </si>
+  <si>
+    <t>List of Issue Types for Sub-Tasks</t>
   </si>
 </sst>
 </file>
@@ -315,7 +333,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
@@ -347,6 +365,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="4" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -721,106 +745,144 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F2E444F-7A81-4D72-BE1E-57CADDBCA512}">
-  <dimension ref="B2:D13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1F1AE1D-FDE0-40FB-9393-74DD609596AB}">
+  <dimension ref="B2:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.6328125" customWidth="1"/>
-    <col min="2" max="2" width="15.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.1796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="11" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B11" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B16" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="16"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B9" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B10" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B11" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B12" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B13" s="4" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <dataValidations count="1">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C7:C8" xr:uid="{53106C48-AB53-4F5B-A3DD-34473D38FA17}">
+      <formula1>$C$12:$C$13</formula1>
+    </dataValidation>
+  </dataValidations>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1" display="simon.labarre@oracle.com" xr:uid="{48D427A7-047B-4A8F-B2E7-B03F3E0DBF34}"/>
-    <hyperlink ref="C3" r:id="rId2" display="laurent.devigne@oracle.com" xr:uid="{C99AADE9-A4E5-4EF6-8B34-8D0053433020}"/>
+    <hyperlink ref="C4" r:id="rId1" display="simon.labarre@oracle.com" xr:uid="{15650D25-726A-41E5-8A66-C39429068EF7}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{9E450877-CB4D-44CE-A5B9-673E821EE250}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -831,44 +893,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FEE6D56-7AA9-4AFE-B4F3-08460964406F}">
   <dimension ref="B2:E33"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.54296875" customWidth="1"/>
-    <col min="2" max="2" width="6.90625" customWidth="1"/>
-    <col min="3" max="3" width="11.7265625" customWidth="1"/>
-    <col min="4" max="4" width="54.90625" customWidth="1"/>
-    <col min="5" max="5" width="177.26953125" customWidth="1"/>
+    <col min="1" max="1" width="2.5703125" customWidth="1"/>
+    <col min="2" max="2" width="6.85546875" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="4" max="4" width="54.85546875" customWidth="1"/>
+    <col min="5" max="5" width="177.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="6"/>
       <c r="C3" s="10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" ht="72.5" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="75" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>1</v>
       </c>
@@ -876,13 +938,13 @@
         <v>7</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>2</v>
       </c>
@@ -890,13 +952,13 @@
         <v>7</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>3</v>
       </c>
@@ -904,7 +966,7 @@
       <c r="D6" s="8"/>
       <c r="E6" s="9"/>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>4</v>
       </c>
@@ -912,7 +974,7 @@
       <c r="D7" s="8"/>
       <c r="E7" s="9"/>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>5</v>
       </c>
@@ -920,7 +982,7 @@
       <c r="D8" s="8"/>
       <c r="E8" s="9"/>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>6</v>
       </c>
@@ -928,7 +990,7 @@
       <c r="D9" s="8"/>
       <c r="E9" s="9"/>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>7</v>
       </c>
@@ -936,7 +998,7 @@
       <c r="D10" s="8"/>
       <c r="E10" s="9"/>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>8</v>
       </c>
@@ -944,7 +1006,7 @@
       <c r="D11" s="8"/>
       <c r="E11" s="9"/>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>9</v>
       </c>
@@ -952,7 +1014,7 @@
       <c r="D12" s="8"/>
       <c r="E12" s="9"/>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>10</v>
       </c>
@@ -960,7 +1022,7 @@
       <c r="D13" s="8"/>
       <c r="E13" s="9"/>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <v>11</v>
       </c>
@@ -968,7 +1030,7 @@
       <c r="D14" s="8"/>
       <c r="E14" s="9"/>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <v>12</v>
       </c>
@@ -976,7 +1038,7 @@
       <c r="D15" s="8"/>
       <c r="E15" s="9"/>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <v>13</v>
       </c>
@@ -984,7 +1046,7 @@
       <c r="D16" s="8"/>
       <c r="E16" s="9"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <v>14</v>
       </c>
@@ -992,7 +1054,7 @@
       <c r="D17" s="8"/>
       <c r="E17" s="9"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
         <v>15</v>
       </c>
@@ -1000,7 +1062,7 @@
       <c r="D18" s="8"/>
       <c r="E18" s="9"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
         <v>16</v>
       </c>
@@ -1008,7 +1070,7 @@
       <c r="D19" s="8"/>
       <c r="E19" s="9"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <v>17</v>
       </c>
@@ -1016,7 +1078,7 @@
       <c r="D20" s="8"/>
       <c r="E20" s="9"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
         <v>18</v>
       </c>
@@ -1024,7 +1086,7 @@
       <c r="D21" s="8"/>
       <c r="E21" s="9"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
         <v>19</v>
       </c>
@@ -1032,7 +1094,7 @@
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
         <v>20</v>
       </c>
@@ -1040,7 +1102,7 @@
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="1">
         <v>21</v>
       </c>
@@ -1048,7 +1110,7 @@
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="1">
         <v>22</v>
       </c>
@@ -1056,7 +1118,7 @@
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="1">
         <v>23</v>
       </c>
@@ -1064,7 +1126,7 @@
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" s="1">
         <v>24</v>
       </c>
@@ -1072,7 +1134,7 @@
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" s="1">
         <v>25</v>
       </c>
@@ -1080,7 +1142,7 @@
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" s="1">
         <v>26</v>
       </c>
@@ -1088,7 +1150,7 @@
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" s="1">
         <v>27</v>
       </c>
@@ -1096,7 +1158,7 @@
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" s="1">
         <v>28</v>
       </c>
@@ -1104,7 +1166,7 @@
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" s="1">
         <v>29</v>
       </c>
@@ -1112,7 +1174,7 @@
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33" s="1">
         <v>30</v>
       </c>
@@ -1121,6 +1183,11 @@
       <c r="E33" s="8"/>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C33" xr:uid="{D314AB68-7DB3-4787-B5DF-F84ABFFDE87D}">
+      <formula1>#REF!</formula1>
+    </dataValidation>
+  </dataValidations>
   <hyperlinks>
     <hyperlink ref="E3" r:id="rId1" xr:uid="{C37031C6-8BEB-48CA-98A8-DC0F80B56E10}"/>
   </hyperlinks>
@@ -1129,18 +1196,6 @@
   <tableParts count="1">
     <tablePart r:id="rId3"/>
   </tableParts>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D314AB68-7DB3-4787-B5DF-F84ABFFDE87D}">
-          <x14:formula1>
-            <xm:f>Identification!$B$10:$B$13</xm:f>
-          </x14:formula1>
-          <xm:sqref>C4:C33</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1148,102 +1203,102 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC53E4E-7563-4C90-8F70-7E95AE37D069}">
   <dimension ref="B2:F53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.54296875" customWidth="1"/>
+    <col min="1" max="1" width="2.5703125" customWidth="1"/>
     <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="18.453125" customWidth="1"/>
-    <col min="5" max="5" width="77.453125" customWidth="1"/>
-    <col min="6" max="6" width="145.90625" customWidth="1"/>
+    <col min="3" max="4" width="18.42578125" customWidth="1"/>
+    <col min="5" max="5" width="77.42578125" customWidth="1"/>
+    <col min="6" max="6" width="145.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="6"/>
       <c r="C3" s="10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="6"/>
       <c r="F3" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>1</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D4" s="8">
-        <f>Issues!B4</f>
+        <f>Stories!B4</f>
         <v>1</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>2</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D5" s="8">
-        <f>Issues!B5</f>
+        <f>Stories!B5</f>
         <v>2</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>3</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D6" s="8">
-        <f>Issues!B5</f>
+        <f>Stories!B5</f>
         <v>2</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>4</v>
       </c>
@@ -1252,7 +1307,7 @@
       <c r="E7" s="13"/>
       <c r="F7" s="9"/>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>5</v>
       </c>
@@ -1261,7 +1316,7 @@
       <c r="E8" s="13"/>
       <c r="F8" s="9"/>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>6</v>
       </c>
@@ -1270,7 +1325,7 @@
       <c r="E9" s="13"/>
       <c r="F9" s="9"/>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>7</v>
       </c>
@@ -1279,7 +1334,7 @@
       <c r="E10" s="13"/>
       <c r="F10" s="9"/>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>8</v>
       </c>
@@ -1288,7 +1343,7 @@
       <c r="E11" s="13"/>
       <c r="F11" s="9"/>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>9</v>
       </c>
@@ -1297,7 +1352,7 @@
       <c r="E12" s="13"/>
       <c r="F12" s="9"/>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>10</v>
       </c>
@@ -1306,7 +1361,7 @@
       <c r="E13" s="13"/>
       <c r="F13" s="9"/>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <v>11</v>
       </c>
@@ -1315,7 +1370,7 @@
       <c r="E14" s="13"/>
       <c r="F14" s="9"/>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <v>12</v>
       </c>
@@ -1324,7 +1379,7 @@
       <c r="E15" s="13"/>
       <c r="F15" s="9"/>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <v>13</v>
       </c>
@@ -1333,7 +1388,7 @@
       <c r="E16" s="13"/>
       <c r="F16" s="9"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <v>14</v>
       </c>
@@ -1342,7 +1397,7 @@
       <c r="E17" s="13"/>
       <c r="F17" s="9"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
         <v>15</v>
       </c>
@@ -1351,7 +1406,7 @@
       <c r="E18" s="13"/>
       <c r="F18" s="9"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
         <v>16</v>
       </c>
@@ -1360,7 +1415,7 @@
       <c r="E19" s="13"/>
       <c r="F19" s="9"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <v>17</v>
       </c>
@@ -1369,7 +1424,7 @@
       <c r="E20" s="13"/>
       <c r="F20" s="9"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
         <v>18</v>
       </c>
@@ -1378,7 +1433,7 @@
       <c r="E21" s="13"/>
       <c r="F21" s="9"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
         <v>19</v>
       </c>
@@ -1387,7 +1442,7 @@
       <c r="E22" s="13"/>
       <c r="F22" s="8"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
         <v>20</v>
       </c>
@@ -1396,7 +1451,7 @@
       <c r="E23" s="13"/>
       <c r="F23" s="8"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="1">
         <v>21</v>
       </c>
@@ -1405,7 +1460,7 @@
       <c r="E24" s="13"/>
       <c r="F24" s="8"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="1">
         <v>22</v>
       </c>
@@ -1414,7 +1469,7 @@
       <c r="E25" s="13"/>
       <c r="F25" s="8"/>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="1">
         <v>23</v>
       </c>
@@ -1423,7 +1478,7 @@
       <c r="E26" s="13"/>
       <c r="F26" s="8"/>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="1">
         <v>24</v>
       </c>
@@ -1432,7 +1487,7 @@
       <c r="E27" s="13"/>
       <c r="F27" s="8"/>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="1">
         <v>25</v>
       </c>
@@ -1441,7 +1496,7 @@
       <c r="E28" s="13"/>
       <c r="F28" s="8"/>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" s="1">
         <v>26</v>
       </c>
@@ -1450,7 +1505,7 @@
       <c r="E29" s="13"/>
       <c r="F29" s="8"/>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" s="1">
         <v>27</v>
       </c>
@@ -1459,7 +1514,7 @@
       <c r="E30" s="13"/>
       <c r="F30" s="8"/>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" s="1">
         <v>28</v>
       </c>
@@ -1468,7 +1523,7 @@
       <c r="E31" s="13"/>
       <c r="F31" s="8"/>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32" s="1">
         <v>29</v>
       </c>
@@ -1477,7 +1532,7 @@
       <c r="E32" s="13"/>
       <c r="F32" s="8"/>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" s="1">
         <v>30</v>
       </c>
@@ -1486,7 +1541,7 @@
       <c r="E33" s="13"/>
       <c r="F33" s="8"/>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" s="1">
         <v>31</v>
       </c>
@@ -1495,7 +1550,7 @@
       <c r="E34" s="14"/>
       <c r="F34" s="8"/>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" s="1">
         <v>32</v>
       </c>
@@ -1504,7 +1559,7 @@
       <c r="E35" s="14"/>
       <c r="F35" s="8"/>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" s="1">
         <v>33</v>
       </c>
@@ -1513,7 +1568,7 @@
       <c r="E36" s="14"/>
       <c r="F36" s="8"/>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" s="1">
         <v>34</v>
       </c>
@@ -1522,7 +1577,7 @@
       <c r="E37" s="14"/>
       <c r="F37" s="8"/>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B38" s="1">
         <v>35</v>
       </c>
@@ -1531,7 +1586,7 @@
       <c r="E38" s="14"/>
       <c r="F38" s="8"/>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B39" s="1">
         <v>36</v>
       </c>
@@ -1540,7 +1595,7 @@
       <c r="E39" s="14"/>
       <c r="F39" s="8"/>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B40" s="1">
         <v>37</v>
       </c>
@@ -1549,7 +1604,7 @@
       <c r="E40" s="13"/>
       <c r="F40" s="8"/>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B41" s="1">
         <v>38</v>
       </c>
@@ -1558,7 +1613,7 @@
       <c r="E41" s="14"/>
       <c r="F41" s="8"/>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B42" s="1">
         <v>39</v>
       </c>
@@ -1567,7 +1622,7 @@
       <c r="E42" s="13"/>
       <c r="F42" s="8"/>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B43" s="1">
         <v>40</v>
       </c>
@@ -1576,7 +1631,7 @@
       <c r="E43" s="13"/>
       <c r="F43" s="8"/>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B44" s="1">
         <v>41</v>
       </c>
@@ -1585,7 +1640,7 @@
       <c r="E44" s="13"/>
       <c r="F44" s="8"/>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B45" s="1">
         <v>42</v>
       </c>
@@ -1594,7 +1649,7 @@
       <c r="E45" s="13"/>
       <c r="F45" s="8"/>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B46" s="1">
         <v>43</v>
       </c>
@@ -1603,7 +1658,7 @@
       <c r="E46" s="14"/>
       <c r="F46" s="8"/>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B47" s="1">
         <v>44</v>
       </c>
@@ -1612,7 +1667,7 @@
       <c r="E47" s="14"/>
       <c r="F47" s="8"/>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B48" s="1">
         <v>45</v>
       </c>
@@ -1621,7 +1676,7 @@
       <c r="E48" s="13"/>
       <c r="F48" s="8"/>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B49" s="1">
         <v>46</v>
       </c>
@@ -1630,7 +1685,7 @@
       <c r="E49" s="14"/>
       <c r="F49" s="8"/>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B50" s="1">
         <v>47</v>
       </c>
@@ -1639,7 +1694,7 @@
       <c r="E50" s="14"/>
       <c r="F50" s="8"/>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B51" s="1">
         <v>48</v>
       </c>
@@ -1648,7 +1703,7 @@
       <c r="E51" s="14"/>
       <c r="F51" s="8"/>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B52" s="1">
         <v>49</v>
       </c>
@@ -1657,7 +1712,7 @@
       <c r="E52" s="14"/>
       <c r="F52" s="8"/>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B53" s="1">
         <v>50</v>
       </c>
@@ -1668,6 +1723,11 @@
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C53" xr:uid="{4354FE99-AFD4-4AE8-9676-C5860948D49B}">
+      <formula1>#REF!</formula1>
+    </dataValidation>
+  </dataValidations>
   <hyperlinks>
     <hyperlink ref="F3" r:id="rId1" xr:uid="{A83EE0EF-A6E0-4C9F-A246-4F250CBFA535}"/>
   </hyperlinks>
@@ -1676,17 +1736,5 @@
   <tableParts count="1">
     <tablePart r:id="rId3"/>
   </tableParts>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4354FE99-AFD4-4AE8-9676-C5860948D49B}">
-          <x14:formula1>
-            <xm:f>Identification!$B$10:$B$13</xm:f>
-          </x14:formula1>
-          <xm:sqref>C4:C53</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>